--- a/気密試験記録2.xlsx
+++ b/気密試験記録2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimas-my.sharepoint.com/personal/mako_sugimoto_hiroshimas_onmicrosoft_com/Documents/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimas-my.sharepoint.com/personal/mako_sugimoto_hiroshimas_onmicrosoft_com/Documents/デスクトップ/気密試験アプリ_normal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_AD4D066CA252ABDACC10489B6192F68E73EEDF56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8BB742F-6306-4697-B3AF-24E7B2C21A27}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_AD4D066CA252ABDACC10489B6192F68E73EEDF56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74B2842B-5A52-406B-827E-9D82E37A4747}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>・常用圧力が不明確である場合は0.8MPa以上1.0MPa未満又は機器最大使用圧力で検査を実施致します。</t>
     <rPh sb="1" eb="3">
@@ -356,17 +356,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>サダム</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t xml:space="preserve">株式会社 広島
-</t>
-    <rPh sb="0" eb="4">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒロシマ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -975,7 +964,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
@@ -1064,10 +1053,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1118,9 +1107,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="11" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1963,7 +1949,7 @@
   <dimension ref="A1:AP65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q2"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -1984,25 +1970,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A1" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
+      <c r="A1" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
       <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" ht="4.5" customHeight="1">
@@ -2025,170 +2011,170 @@
       <c r="Q2" s="42"/>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59"/>
+      <c r="A3" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="72" t="s">
+      <c r="A4" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="66" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="64" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="66" t="s">
+      <c r="A6" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="60" t="s">
+      <c r="A8" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="59"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="58"/>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
       <c r="J9" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" s="52"/>
       <c r="L9" s="53"/>
       <c r="M9" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9" s="43"/>
       <c r="O9" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" s="43"/>
       <c r="Q9" s="43"/>
@@ -2223,14 +2209,12 @@
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="35.1" customHeight="1">
       <c r="A11" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
-      <c r="E11" s="35" t="s">
-        <v>30</v>
-      </c>
+      <c r="E11" s="35"/>
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
